--- a/biology/Botanique/Prionini/Prionini.xlsx
+++ b/biology/Botanique/Prionini/Prionini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Prionini sont une tribu de Coléoptères Cérambycidés de la sous-famille des Prioninae.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Prionini sont aisément reconnaissables parmi les Prioninae pour avoir trois longues épines à chaque côté du prothorax, très rarement raccourcies ou doublées par des autres épines plus petites.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres présents en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seul le genre Prionus est répandu en Europe, avec deux espèces, dont une seule (Prionus coriarius) est présente en Suisse, France, Belgique et Luxembourg[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seul le genre Prionus est répandu en Europe, avec deux espèces, dont une seule (Prionus coriarius) est présente en Suisse, France, Belgique et Luxembourg, :
 genre Prionus Geoffroy, 1762
 sous-genre Prionus Geoffroy, 1762
 espèce Prionus coriarius (Linnaeus, 1758)
@@ -578,7 +594,9 @@
           <t>Autres genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Derobrachus Audinet-Serville, 1832
 Orthosoma Audinet-Serville, 1832
